--- a/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
+++ b/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\Desktop\promoautoecuador\gzl_reporte\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7F515E-3AC0-49AE-BF8C-4FE339A413C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB50072-2437-45E3-A152-22C57EF435FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="AprobacionGarante" sheetId="6" r:id="rId4"/>
     <sheet name="Liquidacion" sheetId="3" r:id="rId5"/>
     <sheet name="Orden Compra" sheetId="4" r:id="rId6"/>
+    <sheet name="OrdenSalida" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTIVIDAD_EMPRESA">#REF!</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
   <si>
     <t>GP-Aprob 01 Ver 02 03 20</t>
   </si>
@@ -461,6 +463,18 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>ORDEN DE SALIDA</t>
+  </si>
+  <si>
+    <t>CHASIS</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>GERENTE DE OPERACIONES</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1008,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1456,6 +1470,57 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1527,57 +1592,6 @@
     </xf>
     <xf numFmtId="170" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1671,6 +1685,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2439,6 +2462,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552171</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3B11E3-7D67-4271-94FA-5012E4FD4C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="19050"/>
+          <a:ext cx="2228571" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2450,6 +2522,27 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Informe"/>
+      <sheetName val="Aprobacion"/>
+      <sheetName val="Liquidacion"/>
+      <sheetName val="Orden Compra"/>
+      <sheetName val="OrdenSalida"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2762,45 +2855,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="264"/>
+      <c r="A1" s="240"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="264"/>
-      <c r="B2" s="266" t="s">
+      <c r="A2" s="240"/>
+      <c r="B2" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="A3" s="240"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="264"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="264"/>
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63"/>
@@ -2809,13 +2902,13 @@
       <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
       <c r="H8" s="63" t="s">
         <v>28</v>
       </c>
@@ -2829,10 +2922,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="259"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="276"/>
       <c r="H10" s="63" t="s">
         <v>30</v>
       </c>
@@ -2841,8 +2934,8 @@
       <c r="B11" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
       <c r="E11" s="123" t="s">
         <v>74</v>
       </c>
@@ -2884,22 +2977,22 @@
       <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="258"/>
-      <c r="D16" s="258"/>
-      <c r="E16" s="258"/>
-      <c r="F16" s="259"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="276"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="73"/>
@@ -2907,10 +3000,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="126"/>
-      <c r="D17" s="245" t="s">
+      <c r="D17" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="245"/>
+      <c r="E17" s="262"/>
       <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -2922,8 +3015,8 @@
       <c r="D18" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="238"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="68"/>
@@ -2933,13 +3026,13 @@
       <c r="F19" s="72"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="129" t="s">
@@ -2951,36 +3044,36 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="248"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="265"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="246"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="248"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="249"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="251"/>
+      <c r="B25" s="266"/>
+      <c r="C25" s="267"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="268"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="241" t="s">
+      <c r="B27" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="129" t="s">
@@ -2992,48 +3085,48 @@
       <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="252"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="254"/>
+      <c r="B29" s="269"/>
+      <c r="C29" s="270"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="270"/>
+      <c r="F29" s="271"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="252"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="254"/>
+      <c r="B30" s="269"/>
+      <c r="C30" s="270"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="270"/>
+      <c r="F30" s="271"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="252"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="254"/>
+      <c r="B31" s="269"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="270"/>
+      <c r="F31" s="271"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="252"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="254"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="271"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="255"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="257"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="274"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="241" t="s">
+      <c r="B35" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="241"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="78" t="s">
@@ -3120,13 +3213,13 @@
       <c r="F42" s="95"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="241" t="s">
+      <c r="B43" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
+      <c r="C43" s="258"/>
+      <c r="D43" s="258"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="258"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="78" t="s">
@@ -3184,85 +3277,85 @@
       <c r="F48" s="90"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="241" t="s">
+      <c r="B50" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="268"/>
-      <c r="C51" s="269"/>
-      <c r="D51" s="269"/>
-      <c r="E51" s="269"/>
-      <c r="F51" s="270"/>
+      <c r="B51" s="244"/>
+      <c r="C51" s="245"/>
+      <c r="D51" s="245"/>
+      <c r="E51" s="245"/>
+      <c r="F51" s="246"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="271"/>
-      <c r="C52" s="272"/>
-      <c r="D52" s="272"/>
-      <c r="E52" s="272"/>
-      <c r="F52" s="273"/>
+      <c r="B52" s="247"/>
+      <c r="C52" s="248"/>
+      <c r="D52" s="248"/>
+      <c r="E52" s="248"/>
+      <c r="F52" s="249"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="271"/>
-      <c r="C53" s="272"/>
-      <c r="D53" s="272"/>
-      <c r="E53" s="272"/>
-      <c r="F53" s="273"/>
+      <c r="B53" s="247"/>
+      <c r="C53" s="248"/>
+      <c r="D53" s="248"/>
+      <c r="E53" s="248"/>
+      <c r="F53" s="249"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="271"/>
-      <c r="C54" s="272"/>
-      <c r="D54" s="272"/>
-      <c r="E54" s="272"/>
-      <c r="F54" s="273"/>
+      <c r="B54" s="247"/>
+      <c r="C54" s="248"/>
+      <c r="D54" s="248"/>
+      <c r="E54" s="248"/>
+      <c r="F54" s="249"/>
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="271"/>
-      <c r="C55" s="272"/>
-      <c r="D55" s="272"/>
-      <c r="E55" s="272"/>
-      <c r="F55" s="273"/>
+      <c r="B55" s="247"/>
+      <c r="C55" s="248"/>
+      <c r="D55" s="248"/>
+      <c r="E55" s="248"/>
+      <c r="F55" s="249"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="274"/>
-      <c r="C56" s="272"/>
-      <c r="D56" s="272"/>
-      <c r="E56" s="272"/>
-      <c r="F56" s="273"/>
+      <c r="B56" s="250"/>
+      <c r="C56" s="248"/>
+      <c r="D56" s="248"/>
+      <c r="E56" s="248"/>
+      <c r="F56" s="249"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="274"/>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="273"/>
+      <c r="B57" s="250"/>
+      <c r="C57" s="248"/>
+      <c r="D57" s="248"/>
+      <c r="E57" s="248"/>
+      <c r="F57" s="249"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="275"/>
-      <c r="C58" s="276"/>
-      <c r="D58" s="276"/>
-      <c r="E58" s="276"/>
-      <c r="F58" s="277"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="252"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="E59" s="263" t="s">
+      <c r="E59" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="263"/>
+      <c r="F59" s="239"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="242" t="s">
+      <c r="B61" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="243"/>
-      <c r="D61" s="243"/>
-      <c r="E61" s="243"/>
-      <c r="F61" s="244"/>
+      <c r="C61" s="260"/>
+      <c r="D61" s="260"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="261"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="103"/>
@@ -3289,14 +3382,14 @@
       <c r="B65" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="237" t="s">
+      <c r="C65" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="238"/>
-      <c r="E65" s="237" t="s">
+      <c r="D65" s="255"/>
+      <c r="E65" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="238"/>
+      <c r="F65" s="255"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="133" t="s">
@@ -3306,12 +3399,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B51:F58"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="B8:F8"/>
@@ -3328,6 +3415,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B51:F58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3362,45 +3455,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="264"/>
+      <c r="A1" s="240"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="264"/>
-      <c r="B2" s="266" t="s">
+      <c r="A2" s="240"/>
+      <c r="B2" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="A3" s="240"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="264"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
+      <c r="A4" s="240"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="264"/>
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63"/>
@@ -3409,13 +3502,13 @@
       <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="256" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
       <c r="H8" s="63" t="s">
         <v>28</v>
       </c>
@@ -3429,10 +3522,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="259"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="276"/>
       <c r="H10" s="63" t="s">
         <v>30</v>
       </c>
@@ -3441,8 +3534,8 @@
       <c r="B11" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
       <c r="E11" s="123" t="s">
         <v>74</v>
       </c>
@@ -3484,22 +3577,22 @@
       <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="258"/>
-      <c r="D16" s="258"/>
-      <c r="E16" s="258"/>
-      <c r="F16" s="259"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="276"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="73"/>
@@ -3507,10 +3600,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="126"/>
-      <c r="D17" s="245" t="s">
+      <c r="D17" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="245"/>
+      <c r="E17" s="262"/>
       <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -3522,8 +3615,8 @@
       <c r="D18" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="238"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="68"/>
@@ -3533,13 +3626,13 @@
       <c r="F19" s="72"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="129" t="s">
@@ -3551,34 +3644,34 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="246"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="248"/>
+      <c r="B23" s="263"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="265"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="246"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="248"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="249"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="251"/>
+      <c r="B25" s="266"/>
+      <c r="C25" s="267"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="268"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="241" t="s">
+      <c r="B27" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="129" t="s">
@@ -3590,48 +3683,48 @@
       <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="252"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="254"/>
+      <c r="B29" s="269"/>
+      <c r="C29" s="270"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="270"/>
+      <c r="F29" s="271"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="252"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="254"/>
+      <c r="B30" s="269"/>
+      <c r="C30" s="270"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="270"/>
+      <c r="F30" s="271"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="252"/>
-      <c r="C31" s="253"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="254"/>
+      <c r="B31" s="269"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="270"/>
+      <c r="F31" s="271"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="252"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="254"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="271"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="255"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="257"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="274"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="241" t="s">
+      <c r="B35" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="241"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="78" t="s">
@@ -3718,13 +3811,13 @@
       <c r="F42" s="95"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="241" t="s">
+      <c r="B43" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
+      <c r="C43" s="258"/>
+      <c r="D43" s="258"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="258"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="78" t="s">
@@ -3782,85 +3875,85 @@
       <c r="F48" s="90"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="241" t="s">
+      <c r="B50" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="268"/>
-      <c r="C51" s="269"/>
-      <c r="D51" s="269"/>
-      <c r="E51" s="269"/>
-      <c r="F51" s="270"/>
+      <c r="B51" s="244"/>
+      <c r="C51" s="245"/>
+      <c r="D51" s="245"/>
+      <c r="E51" s="245"/>
+      <c r="F51" s="246"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="271"/>
-      <c r="C52" s="272"/>
-      <c r="D52" s="272"/>
-      <c r="E52" s="272"/>
-      <c r="F52" s="273"/>
+      <c r="B52" s="247"/>
+      <c r="C52" s="248"/>
+      <c r="D52" s="248"/>
+      <c r="E52" s="248"/>
+      <c r="F52" s="249"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="271"/>
-      <c r="C53" s="272"/>
-      <c r="D53" s="272"/>
-      <c r="E53" s="272"/>
-      <c r="F53" s="273"/>
+      <c r="B53" s="247"/>
+      <c r="C53" s="248"/>
+      <c r="D53" s="248"/>
+      <c r="E53" s="248"/>
+      <c r="F53" s="249"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="271"/>
-      <c r="C54" s="272"/>
-      <c r="D54" s="272"/>
-      <c r="E54" s="272"/>
-      <c r="F54" s="273"/>
+      <c r="B54" s="247"/>
+      <c r="C54" s="248"/>
+      <c r="D54" s="248"/>
+      <c r="E54" s="248"/>
+      <c r="F54" s="249"/>
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="271"/>
-      <c r="C55" s="272"/>
-      <c r="D55" s="272"/>
-      <c r="E55" s="272"/>
-      <c r="F55" s="273"/>
+      <c r="B55" s="247"/>
+      <c r="C55" s="248"/>
+      <c r="D55" s="248"/>
+      <c r="E55" s="248"/>
+      <c r="F55" s="249"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="274"/>
-      <c r="C56" s="272"/>
-      <c r="D56" s="272"/>
-      <c r="E56" s="272"/>
-      <c r="F56" s="273"/>
+      <c r="B56" s="250"/>
+      <c r="C56" s="248"/>
+      <c r="D56" s="248"/>
+      <c r="E56" s="248"/>
+      <c r="F56" s="249"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="274"/>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="273"/>
+      <c r="B57" s="250"/>
+      <c r="C57" s="248"/>
+      <c r="D57" s="248"/>
+      <c r="E57" s="248"/>
+      <c r="F57" s="249"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="275"/>
-      <c r="C58" s="276"/>
-      <c r="D58" s="276"/>
-      <c r="E58" s="276"/>
-      <c r="F58" s="277"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="252"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="E59" s="263" t="s">
+      <c r="E59" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="263"/>
+      <c r="F59" s="239"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="242" t="s">
+      <c r="B61" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="243"/>
-      <c r="D61" s="243"/>
-      <c r="E61" s="243"/>
-      <c r="F61" s="244"/>
+      <c r="C61" s="260"/>
+      <c r="D61" s="260"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="261"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="103"/>
@@ -3887,14 +3980,14 @@
       <c r="B65" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="237" t="s">
+      <c r="C65" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="238"/>
-      <c r="E65" s="237" t="s">
+      <c r="D65" s="255"/>
+      <c r="E65" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="238"/>
+      <c r="F65" s="255"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="133" t="s">
@@ -3904,6 +3997,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B23:F25"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="C65:D65"/>
@@ -3914,18 +4019,6 @@
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B51:F58"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B23:F25"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{03BFF63B-9060-4EE3-80C3-07F7C9A6C77A}">
@@ -3945,7 +4038,7 @@
   </sheetPr>
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -3976,12 +4069,12 @@
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="134"/>
       <c r="I3" s="279"/>
       <c r="J3" s="279"/>
@@ -4599,13 +4692,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="242" t="s">
+      <c r="B46" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="244"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="261"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
@@ -4640,14 +4733,14 @@
       <c r="B50" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="237" t="s">
+      <c r="C50" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="238"/>
-      <c r="E50" s="237" t="s">
+      <c r="D50" s="255"/>
+      <c r="E50" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="238"/>
+      <c r="F50" s="255"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
@@ -4718,12 +4811,12 @@
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="134"/>
       <c r="I3" s="279"/>
       <c r="J3" s="279"/>
@@ -5341,13 +5434,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="242" t="s">
+      <c r="B46" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="244"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="261"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
@@ -5382,14 +5475,14 @@
       <c r="B50" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="237" t="s">
+      <c r="C50" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="238"/>
-      <c r="E50" s="237" t="s">
+      <c r="D50" s="255"/>
+      <c r="E50" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="238"/>
+      <c r="F50" s="255"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
@@ -5450,21 +5543,21 @@
       <c r="B2" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="205"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="207"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="205"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1">
@@ -5938,7 +6031,7 @@
       </c>
       <c r="C41" s="284">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
+        <v>44749</v>
       </c>
       <c r="D41" s="284"/>
       <c r="E41" s="284"/>
@@ -6023,7 +6116,7 @@
       </c>
       <c r="C6" s="303">
         <f ca="1">TODAY()</f>
-        <v>44746</v>
+        <v>44749</v>
       </c>
       <c r="D6" s="303"/>
       <c r="E6" s="303"/>
@@ -6266,4 +6359,190 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2923E-036B-4030-98A2-1853F255E7F8}">
+  <dimension ref="B7:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="303">
+        <f ca="1">TODAY()</f>
+        <v>44749</v>
+      </c>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="43">
+        <f>[2]Liquidacion!D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75">
+      <c r="B15" s="309" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="309"/>
+    </row>
+    <row r="16" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B16" s="304" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="43">
+        <f>[2]Informe!C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="305">
+        <f>[2]Informe!C11</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="305"/>
+    </row>
+    <row r="20" spans="2:7" ht="27" customHeight="1">
+      <c r="B20" s="310" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="306"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="305"/>
+      <c r="E21" s="305"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="311" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="311"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="311"/>
+      <c r="F23" s="311"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="43">
+        <f>'[2]Orden Compra'!C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="43">
+        <f>'[2]Orden Compra'!C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="53">
+        <f>'[2]Orden Compra'!C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="43">
+        <f>'[2]Orden Compra'!C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="53"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="43"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="43"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
+++ b/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB50072-2437-45E3-A152-22C57EF435FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A626A55-23BC-4CA4-AB1B-67B930D86BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,6 +1470,81 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1520,78 +1595,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,14 +1690,11 @@
     <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2539,10 +2539,10 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2855,45 +2855,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="240"/>
+      <c r="A1" s="265"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="242" t="s">
+      <c r="A2" s="265"/>
+      <c r="B2" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="240"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="240"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="A5" s="265"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63"/>
@@ -2902,13 +2902,13 @@
       <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
       <c r="H8" s="63" t="s">
         <v>28</v>
       </c>
@@ -2922,10 +2922,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="275"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="276"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
       <c r="H10" s="63" t="s">
         <v>30</v>
       </c>
@@ -2934,8 +2934,8 @@
       <c r="B11" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
       <c r="E11" s="123" t="s">
         <v>74</v>
       </c>
@@ -2977,22 +2977,22 @@
       <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="257" t="s">
+      <c r="B15" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="257"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="275"/>
-      <c r="D16" s="275"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="276"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="73"/>
@@ -3000,10 +3000,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="126"/>
-      <c r="D17" s="262" t="s">
+      <c r="D17" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="262"/>
+      <c r="E17" s="246"/>
       <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -3015,8 +3015,8 @@
       <c r="D18" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="238"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="263"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="68"/>
@@ -3026,13 +3026,13 @@
       <c r="F19" s="72"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="258" t="s">
+      <c r="B21" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="129" t="s">
@@ -3044,36 +3044,36 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="263" t="s">
+      <c r="B23" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="264"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="264"/>
-      <c r="F23" s="265"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="249"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="263"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="265"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="249"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="266"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="267"/>
-      <c r="E25" s="267"/>
-      <c r="F25" s="268"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="252"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="258" t="s">
+      <c r="B27" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="258"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="129" t="s">
@@ -3085,48 +3085,48 @@
       <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="269"/>
-      <c r="C29" s="270"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="271"/>
+      <c r="B29" s="253"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="255"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="269"/>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="270"/>
-      <c r="F30" s="271"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="254"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="255"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="269"/>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="271"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="254"/>
+      <c r="D31" s="254"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="255"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="269"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="271"/>
+      <c r="B32" s="253"/>
+      <c r="C32" s="254"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="255"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="272"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="274"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="258"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="258" t="s">
+      <c r="B35" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="78" t="s">
@@ -3213,13 +3213,13 @@
       <c r="F42" s="95"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="258" t="s">
+      <c r="B43" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="258"/>
-      <c r="D43" s="258"/>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="242"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="242"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="78" t="s">
@@ -3277,85 +3277,85 @@
       <c r="F48" s="90"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="258" t="s">
+      <c r="B50" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="258"/>
-      <c r="D50" s="258"/>
-      <c r="E50" s="258"/>
-      <c r="F50" s="258"/>
+      <c r="C50" s="242"/>
+      <c r="D50" s="242"/>
+      <c r="E50" s="242"/>
+      <c r="F50" s="242"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="244"/>
-      <c r="C51" s="245"/>
-      <c r="D51" s="245"/>
-      <c r="E51" s="245"/>
-      <c r="F51" s="246"/>
+      <c r="B51" s="269"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="270"/>
+      <c r="E51" s="270"/>
+      <c r="F51" s="271"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="247"/>
-      <c r="C52" s="248"/>
-      <c r="D52" s="248"/>
-      <c r="E52" s="248"/>
-      <c r="F52" s="249"/>
+      <c r="B52" s="272"/>
+      <c r="C52" s="273"/>
+      <c r="D52" s="273"/>
+      <c r="E52" s="273"/>
+      <c r="F52" s="274"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="247"/>
-      <c r="C53" s="248"/>
-      <c r="D53" s="248"/>
-      <c r="E53" s="248"/>
-      <c r="F53" s="249"/>
+      <c r="B53" s="272"/>
+      <c r="C53" s="273"/>
+      <c r="D53" s="273"/>
+      <c r="E53" s="273"/>
+      <c r="F53" s="274"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="247"/>
-      <c r="C54" s="248"/>
-      <c r="D54" s="248"/>
-      <c r="E54" s="248"/>
-      <c r="F54" s="249"/>
+      <c r="B54" s="272"/>
+      <c r="C54" s="273"/>
+      <c r="D54" s="273"/>
+      <c r="E54" s="273"/>
+      <c r="F54" s="274"/>
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="247"/>
-      <c r="C55" s="248"/>
-      <c r="D55" s="248"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="249"/>
+      <c r="B55" s="272"/>
+      <c r="C55" s="273"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="274"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="250"/>
-      <c r="C56" s="248"/>
-      <c r="D56" s="248"/>
-      <c r="E56" s="248"/>
-      <c r="F56" s="249"/>
+      <c r="B56" s="275"/>
+      <c r="C56" s="273"/>
+      <c r="D56" s="273"/>
+      <c r="E56" s="273"/>
+      <c r="F56" s="274"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="250"/>
-      <c r="C57" s="248"/>
-      <c r="D57" s="248"/>
-      <c r="E57" s="248"/>
-      <c r="F57" s="249"/>
+      <c r="B57" s="275"/>
+      <c r="C57" s="273"/>
+      <c r="D57" s="273"/>
+      <c r="E57" s="273"/>
+      <c r="F57" s="274"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="251"/>
-      <c r="C58" s="252"/>
-      <c r="D58" s="252"/>
-      <c r="E58" s="252"/>
-      <c r="F58" s="253"/>
+      <c r="B58" s="276"/>
+      <c r="C58" s="277"/>
+      <c r="D58" s="277"/>
+      <c r="E58" s="277"/>
+      <c r="F58" s="278"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="E59" s="239" t="s">
+      <c r="E59" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="239"/>
+      <c r="F59" s="264"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="259" t="s">
+      <c r="B61" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="260"/>
-      <c r="D61" s="260"/>
-      <c r="E61" s="260"/>
-      <c r="F61" s="261"/>
+      <c r="C61" s="244"/>
+      <c r="D61" s="244"/>
+      <c r="E61" s="244"/>
+      <c r="F61" s="245"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="103"/>
@@ -3382,14 +3382,14 @@
       <c r="B65" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="254" t="s">
+      <c r="C65" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="255"/>
-      <c r="E65" s="254" t="s">
+      <c r="D65" s="239"/>
+      <c r="E65" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="255"/>
+      <c r="F65" s="239"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="133" t="s">
@@ -3399,6 +3399,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B51:F58"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="B8:F8"/>
@@ -3415,12 +3421,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B51:F58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3455,45 +3455,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="240"/>
+      <c r="A1" s="265"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="240"/>
-      <c r="B2" s="242" t="s">
+      <c r="A2" s="265"/>
+      <c r="B2" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="240"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="240"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="A5" s="265"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63"/>
@@ -3502,13 +3502,13 @@
       <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
       <c r="H8" s="63" t="s">
         <v>28</v>
       </c>
@@ -3522,10 +3522,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="275"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="276"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="260"/>
       <c r="H10" s="63" t="s">
         <v>30</v>
       </c>
@@ -3534,8 +3534,8 @@
       <c r="B11" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="277"/>
-      <c r="D11" s="277"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
       <c r="E11" s="123" t="s">
         <v>74</v>
       </c>
@@ -3577,22 +3577,22 @@
       <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="257" t="s">
+      <c r="B15" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="257"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="275"/>
-      <c r="D16" s="275"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="276"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="73"/>
@@ -3600,10 +3600,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="126"/>
-      <c r="D17" s="262" t="s">
+      <c r="D17" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="262"/>
+      <c r="E17" s="246"/>
       <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -3615,8 +3615,8 @@
       <c r="D18" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="238"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="263"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="68"/>
@@ -3626,13 +3626,13 @@
       <c r="F19" s="72"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="258" t="s">
+      <c r="B21" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="129" t="s">
@@ -3644,34 +3644,34 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="263"/>
-      <c r="C23" s="264"/>
-      <c r="D23" s="264"/>
-      <c r="E23" s="264"/>
-      <c r="F23" s="265"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="249"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="263"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="265"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="249"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="266"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="267"/>
-      <c r="E25" s="267"/>
-      <c r="F25" s="268"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="252"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="258" t="s">
+      <c r="B27" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="258"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="129" t="s">
@@ -3683,48 +3683,48 @@
       <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="269"/>
-      <c r="C29" s="270"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="271"/>
+      <c r="B29" s="253"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="255"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="269"/>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="270"/>
-      <c r="F30" s="271"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="254"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="255"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="269"/>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="271"/>
+      <c r="B31" s="253"/>
+      <c r="C31" s="254"/>
+      <c r="D31" s="254"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="255"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="269"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="271"/>
+      <c r="B32" s="253"/>
+      <c r="C32" s="254"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="255"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="272"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="274"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="258"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="258" t="s">
+      <c r="B35" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258"/>
-      <c r="E35" s="258"/>
-      <c r="F35" s="258"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="78" t="s">
@@ -3811,13 +3811,13 @@
       <c r="F42" s="95"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="258" t="s">
+      <c r="B43" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="258"/>
-      <c r="D43" s="258"/>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="242"/>
+      <c r="E43" s="242"/>
+      <c r="F43" s="242"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="78" t="s">
@@ -3875,85 +3875,85 @@
       <c r="F48" s="90"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="258" t="s">
+      <c r="B50" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="258"/>
-      <c r="D50" s="258"/>
-      <c r="E50" s="258"/>
-      <c r="F50" s="258"/>
+      <c r="C50" s="242"/>
+      <c r="D50" s="242"/>
+      <c r="E50" s="242"/>
+      <c r="F50" s="242"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="244"/>
-      <c r="C51" s="245"/>
-      <c r="D51" s="245"/>
-      <c r="E51" s="245"/>
-      <c r="F51" s="246"/>
+      <c r="B51" s="269"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="270"/>
+      <c r="E51" s="270"/>
+      <c r="F51" s="271"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="247"/>
-      <c r="C52" s="248"/>
-      <c r="D52" s="248"/>
-      <c r="E52" s="248"/>
-      <c r="F52" s="249"/>
+      <c r="B52" s="272"/>
+      <c r="C52" s="273"/>
+      <c r="D52" s="273"/>
+      <c r="E52" s="273"/>
+      <c r="F52" s="274"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="247"/>
-      <c r="C53" s="248"/>
-      <c r="D53" s="248"/>
-      <c r="E53" s="248"/>
-      <c r="F53" s="249"/>
+      <c r="B53" s="272"/>
+      <c r="C53" s="273"/>
+      <c r="D53" s="273"/>
+      <c r="E53" s="273"/>
+      <c r="F53" s="274"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="247"/>
-      <c r="C54" s="248"/>
-      <c r="D54" s="248"/>
-      <c r="E54" s="248"/>
-      <c r="F54" s="249"/>
+      <c r="B54" s="272"/>
+      <c r="C54" s="273"/>
+      <c r="D54" s="273"/>
+      <c r="E54" s="273"/>
+      <c r="F54" s="274"/>
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="247"/>
-      <c r="C55" s="248"/>
-      <c r="D55" s="248"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="249"/>
+      <c r="B55" s="272"/>
+      <c r="C55" s="273"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="274"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="250"/>
-      <c r="C56" s="248"/>
-      <c r="D56" s="248"/>
-      <c r="E56" s="248"/>
-      <c r="F56" s="249"/>
+      <c r="B56" s="275"/>
+      <c r="C56" s="273"/>
+      <c r="D56" s="273"/>
+      <c r="E56" s="273"/>
+      <c r="F56" s="274"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="250"/>
-      <c r="C57" s="248"/>
-      <c r="D57" s="248"/>
-      <c r="E57" s="248"/>
-      <c r="F57" s="249"/>
+      <c r="B57" s="275"/>
+      <c r="C57" s="273"/>
+      <c r="D57" s="273"/>
+      <c r="E57" s="273"/>
+      <c r="F57" s="274"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="251"/>
-      <c r="C58" s="252"/>
-      <c r="D58" s="252"/>
-      <c r="E58" s="252"/>
-      <c r="F58" s="253"/>
+      <c r="B58" s="276"/>
+      <c r="C58" s="277"/>
+      <c r="D58" s="277"/>
+      <c r="E58" s="277"/>
+      <c r="F58" s="278"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="E59" s="239" t="s">
+      <c r="E59" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="239"/>
+      <c r="F59" s="264"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="259" t="s">
+      <c r="B61" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="260"/>
-      <c r="D61" s="260"/>
-      <c r="E61" s="260"/>
-      <c r="F61" s="261"/>
+      <c r="C61" s="244"/>
+      <c r="D61" s="244"/>
+      <c r="E61" s="244"/>
+      <c r="F61" s="245"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="103"/>
@@ -3980,14 +3980,14 @@
       <c r="B65" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="254" t="s">
+      <c r="C65" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="255"/>
-      <c r="E65" s="254" t="s">
+      <c r="D65" s="239"/>
+      <c r="E65" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="255"/>
+      <c r="F65" s="239"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="133" t="s">
@@ -3997,6 +3997,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F58"/>
     <mergeCell ref="B23:F25"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C1:E1"/>
@@ -4009,16 +4019,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{03BFF63B-9060-4EE3-80C3-07F7C9A6C77A}">
@@ -4069,17 +4069,17 @@
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="242" t="s">
+      <c r="C3" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
       <c r="G3" s="134"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="280"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
       <c r="A4" s="107"/>
@@ -4091,10 +4091,10 @@
       <c r="E4" s="184"/>
       <c r="F4" s="184"/>
       <c r="G4" s="183"/>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="279"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="280"/>
     </row>
     <row r="5" spans="1:12" ht="12.6" customHeight="1">
       <c r="A5" s="107"/>
@@ -4128,10 +4128,10 @@
       <c r="B8" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="137"/>
     </row>
     <row r="9" spans="1:12" s="138" customFormat="1" ht="12.75">
@@ -4139,8 +4139,8 @@
       <c r="B9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="281"/>
       <c r="E9" s="192" t="s">
         <v>74</v>
       </c>
@@ -4610,12 +4610,12 @@
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="107"/>
-      <c r="B38" s="281" t="s">
+      <c r="B38" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="282"/>
+      <c r="E38" s="282"/>
       <c r="F38" s="175">
         <f>+F16+F20+F24+F27+F29+F31</f>
         <v>0</v>
@@ -4692,13 +4692,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="259" t="s">
+      <c r="B46" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="260"/>
-      <c r="D46" s="260"/>
-      <c r="E46" s="260"/>
-      <c r="F46" s="261"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="245"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
@@ -4733,14 +4733,14 @@
       <c r="B50" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="254" t="s">
+      <c r="C50" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="255"/>
-      <c r="E50" s="254" t="s">
+      <c r="D50" s="239"/>
+      <c r="E50" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="255"/>
+      <c r="F50" s="239"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
@@ -4748,10 +4748,10 @@
       <c r="B51" s="159"/>
       <c r="C51" s="159"/>
       <c r="D51" s="159"/>
-      <c r="E51" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="278"/>
+      <c r="E51" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="279"/>
       <c r="G51" s="111"/>
     </row>
   </sheetData>
@@ -4811,17 +4811,17 @@
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="242" t="s">
+      <c r="C3" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
       <c r="G3" s="134"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="280"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
       <c r="A4" s="107"/>
@@ -4833,10 +4833,10 @@
       <c r="E4" s="184"/>
       <c r="F4" s="184"/>
       <c r="G4" s="183"/>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="279"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="280"/>
     </row>
     <row r="5" spans="1:12" ht="12.6" customHeight="1">
       <c r="A5" s="107"/>
@@ -4870,10 +4870,10 @@
       <c r="B8" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="137"/>
     </row>
     <row r="9" spans="1:12" s="138" customFormat="1" ht="12.75">
@@ -4881,8 +4881,8 @@
       <c r="B9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="281"/>
       <c r="E9" s="192" t="s">
         <v>74</v>
       </c>
@@ -5352,12 +5352,12 @@
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="107"/>
-      <c r="B38" s="281" t="s">
+      <c r="B38" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="282"/>
+      <c r="E38" s="282"/>
       <c r="F38" s="175">
         <f>+F16+F20+F24+F27+F29+F31</f>
         <v>0</v>
@@ -5434,13 +5434,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="259" t="s">
+      <c r="B46" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="260"/>
-      <c r="D46" s="260"/>
-      <c r="E46" s="260"/>
-      <c r="F46" s="261"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="245"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
@@ -5475,14 +5475,14 @@
       <c r="B50" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="254" t="s">
+      <c r="C50" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="255"/>
-      <c r="E50" s="254" t="s">
+      <c r="D50" s="239"/>
+      <c r="E50" s="238" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="255"/>
+      <c r="F50" s="239"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
@@ -5490,10 +5490,10 @@
       <c r="B51" s="159"/>
       <c r="C51" s="159"/>
       <c r="D51" s="159"/>
-      <c r="E51" s="278" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="278"/>
+      <c r="E51" s="279" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="279"/>
       <c r="G51" s="111"/>
     </row>
   </sheetData>
@@ -5543,21 +5543,21 @@
       <c r="B2" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
       <c r="G2" s="205"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="207"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
       <c r="G3" s="205"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1">
@@ -5595,13 +5595,13 @@
       <c r="B7" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="285">
+      <c r="C7" s="286">
         <f>+Aprobacion!C8</f>
         <v>0</v>
       </c>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="288"/>
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:14" s="30" customFormat="1" ht="25.5">
@@ -5609,11 +5609,11 @@
       <c r="B8" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="288">
+      <c r="C8" s="289">
         <f>+Aprobacion!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="288"/>
+      <c r="D8" s="289"/>
       <c r="E8" s="220" t="s">
         <v>74</v>
       </c>
@@ -5920,13 +5920,13 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="298" t="s">
+      <c r="B30" s="299" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="299"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="296"/>
+      <c r="C30" s="300"/>
+      <c r="D30" s="295"/>
+      <c r="E30" s="296"/>
+      <c r="F30" s="297"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:10">
@@ -5960,11 +5960,11 @@
     </row>
     <row r="34" spans="1:7" ht="68.25" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="297"/>
-      <c r="C34" s="297"/>
-      <c r="D34" s="297"/>
-      <c r="E34" s="297"/>
-      <c r="F34" s="297"/>
+      <c r="B34" s="298"/>
+      <c r="C34" s="298"/>
+      <c r="D34" s="298"/>
+      <c r="E34" s="298"/>
+      <c r="F34" s="298"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
@@ -5973,13 +5973,13 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="289" t="s">
+      <c r="B36" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="290"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="291"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="292"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
@@ -6014,14 +6014,14 @@
       <c r="B40" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="292" t="s">
+      <c r="C40" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="293"/>
-      <c r="E40" s="292" t="s">
+      <c r="D40" s="294"/>
+      <c r="E40" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="293"/>
+      <c r="F40" s="294"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -6029,12 +6029,12 @@
       <c r="B41" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="284">
+      <c r="C41" s="285">
         <f ca="1">TODAY()</f>
         <v>44749</v>
       </c>
-      <c r="D41" s="284"/>
-      <c r="E41" s="284"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="285"/>
       <c r="F41" s="50"/>
       <c r="G41" s="6"/>
     </row>
@@ -6087,39 +6087,39 @@
     <row r="2" spans="2:7" ht="50.45" customHeight="1">
       <c r="B2" s="231"/>
       <c r="C2" s="231"/>
-      <c r="D2" s="301" t="s">
+      <c r="D2" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
       <c r="G2" s="231"/>
     </row>
     <row r="3" spans="2:7" ht="12.6" customHeight="1">
       <c r="B3" s="231"/>
       <c r="C3" s="231"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
       <c r="G3" s="231"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="231"/>
       <c r="C4" s="231"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
       <c r="G4" s="231"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="303">
+      <c r="C6" s="304">
         <f ca="1">TODAY()</f>
         <v>44749</v>
       </c>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
@@ -6138,24 +6138,24 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B13" s="301" t="s">
+      <c r="B13" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
     </row>
     <row r="14" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B14" s="304" t="s">
+      <c r="B14" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="304"/>
-      <c r="G14" s="304"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="305"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="305"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="226" t="s">
@@ -6170,39 +6170,39 @@
       <c r="B17" s="226" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="305">
+      <c r="D17" s="306">
         <f>+Liquidacion!C8</f>
         <v>0</v>
       </c>
-      <c r="E17" s="305"/>
+      <c r="E17" s="306"/>
     </row>
     <row r="18" spans="2:7" ht="27" customHeight="1">
       <c r="B18" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="306"/>
-      <c r="E18" s="306"/>
-      <c r="F18" s="306"/>
-      <c r="G18" s="306"/>
+      <c r="D18" s="307"/>
+      <c r="E18" s="307"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="307"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="226" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="305" t="s">
+      <c r="D19" s="306" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="305"/>
+      <c r="E19" s="306"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="307" t="s">
+      <c r="B21" s="308" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="307"/>
-      <c r="D21" s="307"/>
-      <c r="E21" s="307"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="307"/>
+      <c r="C21" s="308"/>
+      <c r="D21" s="308"/>
+      <c r="E21" s="308"/>
+      <c r="F21" s="308"/>
+      <c r="G21" s="308"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="226" t="s">
@@ -6229,14 +6229,14 @@
       <c r="D26" s="43"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="308" t="s">
+      <c r="B28" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="308"/>
-      <c r="D28" s="308"/>
-      <c r="E28" s="308"/>
-      <c r="F28" s="308"/>
-      <c r="G28" s="308"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="309"/>
     </row>
     <row r="29" spans="2:7">
       <c r="D29" s="54"/>
@@ -6300,12 +6300,12 @@
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="302">
+      <c r="B35" s="303">
         <f>IF(E35=0,0,"DIFERENCIA PAGA AL CONCESIONARIO")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="302"/>
-      <c r="D35" s="302"/>
+      <c r="C35" s="303"/>
+      <c r="D35" s="303"/>
       <c r="E35" s="57">
         <f>IF(E34&lt;E30,E30-E34,0)</f>
         <v>0</v>
@@ -6317,14 +6317,14 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="301" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="300"/>
-      <c r="D39" s="300"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="300"/>
-      <c r="G39" s="300"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
+      <c r="G39" s="301"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
@@ -6365,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2923E-036B-4030-98A2-1853F255E7F8}">
   <dimension ref="B7:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6381,12 +6381,12 @@
       <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="303">
+      <c r="C7" s="304">
         <f ca="1">TODAY()</f>
         <v>44749</v>
       </c>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
@@ -6405,23 +6405,23 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="311" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="309"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
     </row>
     <row r="16" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B16" s="304" t="s">
+      <c r="B16" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="304"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="304"/>
-      <c r="F16" s="304"/>
-      <c r="G16" s="304"/>
+      <c r="C16" s="305"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
@@ -6436,43 +6436,43 @@
       <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="305">
+      <c r="D19" s="306">
         <f>[2]Informe!C11</f>
         <v>0</v>
       </c>
-      <c r="E19" s="305"/>
+      <c r="E19" s="306"/>
     </row>
     <row r="20" spans="2:7" ht="27" customHeight="1">
-      <c r="B20" s="310" t="s">
+      <c r="B20" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="306"/>
-      <c r="E20" s="306"/>
-      <c r="F20" s="306"/>
-      <c r="G20" s="306"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="307"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="305"/>
-      <c r="E21" s="305"/>
+      <c r="D21" s="306"/>
+      <c r="E21" s="306"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="311" t="s">
+      <c r="B23" s="310" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="311"/>
-      <c r="D23" s="311"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="311"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="43">
-        <f>'[2]Orden Compra'!C23</f>
+        <f>'[2]Orden Compra'!D23</f>
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="43">
-        <f>'[2]Orden Compra'!C24</f>
+        <f>'[2]Orden Compra'!D24</f>
         <v>0</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>97</v>
       </c>
       <c r="D27" s="53">
-        <f>'[2]Orden Compra'!C25</f>
+        <f>'[2]Orden Compra'!D25</f>
         <v>0</v>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="43">
-        <f>'[2]Orden Compra'!C26</f>
+        <f>'[2]Orden Compra'!D26</f>
         <v>0</v>
       </c>
     </row>

--- a/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
+++ b/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A626A55-23BC-4CA4-AB1B-67B930D86BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9549E-4587-41D5-ABC8-03DC84796681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="ACTIVIDAD_EMPRESA">#REF!</definedName>
@@ -2527,27 +2526,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Informe"/>
-      <sheetName val="Aprobacion"/>
-      <sheetName val="Liquidacion"/>
-      <sheetName val="Orden Compra"/>
-      <sheetName val="OrdenSalida"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5522,7 +5500,7 @@
   </sheetPr>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -6073,7 +6051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -6365,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2923E-036B-4030-98A2-1853F255E7F8}">
   <dimension ref="B7:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6395,7 +6373,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="43">
-        <f>[2]Liquidacion!D30</f>
+        <f>Liquidacion!D30</f>
         <v>0</v>
       </c>
     </row>
@@ -6428,7 +6406,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="43">
-        <f>[2]Informe!C10</f>
+        <f>Informe!C10</f>
         <v>0</v>
       </c>
     </row>
@@ -6437,7 +6415,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="306">
-        <f>[2]Informe!C11</f>
+        <f>Informe!C11</f>
         <v>0</v>
       </c>
       <c r="E19" s="306"/>
@@ -6472,7 +6450,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="43">
-        <f>'[2]Orden Compra'!D23</f>
+        <f>'Orden Compra'!C23</f>
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6459,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="43">
-        <f>'[2]Orden Compra'!D24</f>
+        <f>'Orden Compra'!C24</f>
         <v>0</v>
       </c>
     </row>
@@ -6489,8 +6467,8 @@
       <c r="B27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="53">
-        <f>'[2]Orden Compra'!D25</f>
+      <c r="D27" s="43">
+        <f>'Orden Compra'!C25</f>
         <v>0</v>
       </c>
     </row>
@@ -6499,7 +6477,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="43">
-        <f>'[2]Orden Compra'!D26</f>
+        <f>'Orden Compra'!C26</f>
         <v>0</v>
       </c>
     </row>

--- a/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
+++ b/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9549E-4587-41D5-ABC8-03DC84796681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7D5953-EAFF-4CD5-ADD9-52D42B220113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,6 +1472,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,57 +1594,6 @@
     </xf>
     <xf numFmtId="170" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2833,45 +2833,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="265"/>
+      <c r="A1" s="241"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="265"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="241"/>
+      <c r="B2" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="265"/>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="265"/>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
+      <c r="A4" s="241"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="265"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63"/>
@@ -2880,13 +2880,13 @@
       <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
       <c r="H8" s="63" t="s">
         <v>28</v>
       </c>
@@ -2900,10 +2900,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="260"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="277"/>
       <c r="H10" s="63" t="s">
         <v>30</v>
       </c>
@@ -2912,8 +2912,8 @@
       <c r="B11" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
       <c r="E11" s="123" t="s">
         <v>74</v>
       </c>
@@ -2955,22 +2955,22 @@
       <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="277"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="73"/>
@@ -2978,10 +2978,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="126"/>
-      <c r="D17" s="246" t="s">
+      <c r="D17" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="246"/>
+      <c r="E17" s="263"/>
       <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -2993,8 +2993,8 @@
       <c r="D18" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="262"/>
-      <c r="F18" s="263"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="239"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="68"/>
@@ -3004,13 +3004,13 @@
       <c r="F19" s="72"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="129" t="s">
@@ -3022,36 +3022,36 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="247" t="s">
+      <c r="B23" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="249"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="266"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="247"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="249"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="265"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="266"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="250"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="252"/>
+      <c r="B25" s="267"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="269"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="242" t="s">
+      <c r="B27" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="259"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="129" t="s">
@@ -3063,48 +3063,48 @@
       <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="253"/>
-      <c r="C29" s="254"/>
-      <c r="D29" s="254"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="255"/>
+      <c r="B29" s="270"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="271"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="272"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="253"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="255"/>
+      <c r="B30" s="270"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="272"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="253"/>
-      <c r="C31" s="254"/>
-      <c r="D31" s="254"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="255"/>
+      <c r="B31" s="270"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="272"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="253"/>
-      <c r="C32" s="254"/>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="255"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="272"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="256"/>
-      <c r="C33" s="257"/>
-      <c r="D33" s="257"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="258"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="275"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="242" t="s">
+      <c r="B35" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="242"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
+      <c r="C35" s="259"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="259"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="78" t="s">
@@ -3191,13 +3191,13 @@
       <c r="F42" s="95"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="242" t="s">
+      <c r="B43" s="259" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
+      <c r="C43" s="259"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="259"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="78" t="s">
@@ -3255,85 +3255,85 @@
       <c r="F48" s="90"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="242" t="s">
+      <c r="B50" s="259" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="242"/>
-      <c r="D50" s="242"/>
-      <c r="E50" s="242"/>
-      <c r="F50" s="242"/>
+      <c r="C50" s="259"/>
+      <c r="D50" s="259"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="259"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="269"/>
-      <c r="C51" s="270"/>
-      <c r="D51" s="270"/>
-      <c r="E51" s="270"/>
-      <c r="F51" s="271"/>
+      <c r="B51" s="245"/>
+      <c r="C51" s="246"/>
+      <c r="D51" s="246"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="247"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="272"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="273"/>
-      <c r="F52" s="274"/>
+      <c r="B52" s="248"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="250"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="272"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="273"/>
-      <c r="F53" s="274"/>
+      <c r="B53" s="248"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+      <c r="F53" s="250"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="272"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="273"/>
-      <c r="F54" s="274"/>
+      <c r="B54" s="248"/>
+      <c r="C54" s="249"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="250"/>
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="272"/>
-      <c r="C55" s="273"/>
-      <c r="D55" s="273"/>
-      <c r="E55" s="273"/>
-      <c r="F55" s="274"/>
+      <c r="B55" s="248"/>
+      <c r="C55" s="249"/>
+      <c r="D55" s="249"/>
+      <c r="E55" s="249"/>
+      <c r="F55" s="250"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="275"/>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="273"/>
-      <c r="F56" s="274"/>
+      <c r="B56" s="251"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="249"/>
+      <c r="E56" s="249"/>
+      <c r="F56" s="250"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="275"/>
-      <c r="C57" s="273"/>
-      <c r="D57" s="273"/>
-      <c r="E57" s="273"/>
-      <c r="F57" s="274"/>
+      <c r="B57" s="251"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="249"/>
+      <c r="F57" s="250"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="276"/>
-      <c r="C58" s="277"/>
-      <c r="D58" s="277"/>
-      <c r="E58" s="277"/>
-      <c r="F58" s="278"/>
+      <c r="B58" s="252"/>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="254"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="E59" s="264" t="s">
+      <c r="E59" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="264"/>
+      <c r="F59" s="240"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="243" t="s">
+      <c r="B61" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="244"/>
-      <c r="D61" s="244"/>
-      <c r="E61" s="244"/>
-      <c r="F61" s="245"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="262"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="103"/>
@@ -3360,14 +3360,14 @@
       <c r="B65" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="238" t="s">
+      <c r="C65" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="239"/>
-      <c r="E65" s="238" t="s">
+      <c r="D65" s="256"/>
+      <c r="E65" s="255" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="239"/>
+      <c r="F65" s="256"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="133" t="s">
@@ -3377,12 +3377,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B51:F58"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="B8:F8"/>
@@ -3399,6 +3393,12 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B51:F58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3433,45 +3433,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="265"/>
+      <c r="A1" s="241"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="265"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="241"/>
+      <c r="B2" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="265"/>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="265"/>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
+      <c r="A4" s="241"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="265"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="63"/>
@@ -3480,13 +3480,13 @@
       <c r="F6" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
       <c r="H8" s="63" t="s">
         <v>28</v>
       </c>
@@ -3500,10 +3500,10 @@
       <c r="B10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="260"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="277"/>
       <c r="H10" s="63" t="s">
         <v>30</v>
       </c>
@@ -3512,8 +3512,8 @@
       <c r="B11" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
       <c r="E11" s="123" t="s">
         <v>74</v>
       </c>
@@ -3555,22 +3555,22 @@
       <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="259"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="277"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="73"/>
@@ -3578,10 +3578,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="126"/>
-      <c r="D17" s="246" t="s">
+      <c r="D17" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="246"/>
+      <c r="E17" s="263"/>
       <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -3593,8 +3593,8 @@
       <c r="D18" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="262"/>
-      <c r="F18" s="263"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="239"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="68"/>
@@ -3604,13 +3604,13 @@
       <c r="F19" s="72"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="129" t="s">
@@ -3622,34 +3622,34 @@
       <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="247"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="249"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="266"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="247"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="249"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="265"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="266"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="250"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="252"/>
+      <c r="B25" s="267"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="269"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="242" t="s">
+      <c r="B27" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="259"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="129" t="s">
@@ -3661,48 +3661,48 @@
       <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="253"/>
-      <c r="C29" s="254"/>
-      <c r="D29" s="254"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="255"/>
+      <c r="B29" s="270"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="271"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="272"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="253"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="255"/>
+      <c r="B30" s="270"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="272"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="253"/>
-      <c r="C31" s="254"/>
-      <c r="D31" s="254"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="255"/>
+      <c r="B31" s="270"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="272"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="253"/>
-      <c r="C32" s="254"/>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="255"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="272"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="256"/>
-      <c r="C33" s="257"/>
-      <c r="D33" s="257"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="258"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="275"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="242" t="s">
+      <c r="B35" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="242"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
+      <c r="C35" s="259"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="259"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="78" t="s">
@@ -3789,13 +3789,13 @@
       <c r="F42" s="95"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="242" t="s">
+      <c r="B43" s="259" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
+      <c r="C43" s="259"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="259"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="78" t="s">
@@ -3853,85 +3853,85 @@
       <c r="F48" s="90"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="242" t="s">
+      <c r="B50" s="259" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="242"/>
-      <c r="D50" s="242"/>
-      <c r="E50" s="242"/>
-      <c r="F50" s="242"/>
+      <c r="C50" s="259"/>
+      <c r="D50" s="259"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="259"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="269"/>
-      <c r="C51" s="270"/>
-      <c r="D51" s="270"/>
-      <c r="E51" s="270"/>
-      <c r="F51" s="271"/>
+      <c r="B51" s="245"/>
+      <c r="C51" s="246"/>
+      <c r="D51" s="246"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="247"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="272"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="273"/>
-      <c r="E52" s="273"/>
-      <c r="F52" s="274"/>
+      <c r="B52" s="248"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="250"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="272"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="273"/>
-      <c r="F53" s="274"/>
+      <c r="B53" s="248"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+      <c r="F53" s="250"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="272"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="273"/>
-      <c r="E54" s="273"/>
-      <c r="F54" s="274"/>
+      <c r="B54" s="248"/>
+      <c r="C54" s="249"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="250"/>
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="272"/>
-      <c r="C55" s="273"/>
-      <c r="D55" s="273"/>
-      <c r="E55" s="273"/>
-      <c r="F55" s="274"/>
+      <c r="B55" s="248"/>
+      <c r="C55" s="249"/>
+      <c r="D55" s="249"/>
+      <c r="E55" s="249"/>
+      <c r="F55" s="250"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="275"/>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="273"/>
-      <c r="F56" s="274"/>
+      <c r="B56" s="251"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="249"/>
+      <c r="E56" s="249"/>
+      <c r="F56" s="250"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="275"/>
-      <c r="C57" s="273"/>
-      <c r="D57" s="273"/>
-      <c r="E57" s="273"/>
-      <c r="F57" s="274"/>
+      <c r="B57" s="251"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="249"/>
+      <c r="F57" s="250"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="276"/>
-      <c r="C58" s="277"/>
-      <c r="D58" s="277"/>
-      <c r="E58" s="277"/>
-      <c r="F58" s="278"/>
+      <c r="B58" s="252"/>
+      <c r="C58" s="253"/>
+      <c r="D58" s="253"/>
+      <c r="E58" s="253"/>
+      <c r="F58" s="254"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="E59" s="264" t="s">
+      <c r="E59" s="240" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="264"/>
+      <c r="F59" s="240"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="243" t="s">
+      <c r="B61" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="244"/>
-      <c r="D61" s="244"/>
-      <c r="E61" s="244"/>
-      <c r="F61" s="245"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="262"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="103"/>
@@ -3958,14 +3958,14 @@
       <c r="B65" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="238" t="s">
+      <c r="C65" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="239"/>
-      <c r="E65" s="238" t="s">
+      <c r="D65" s="256"/>
+      <c r="E65" s="255" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="239"/>
+      <c r="F65" s="256"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="133" t="s">
@@ -3975,16 +3975,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F58"/>
     <mergeCell ref="B23:F25"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C1:E1"/>
@@ -3997,6 +3987,16 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{03BFF63B-9060-4EE3-80C3-07F7C9A6C77A}">
@@ -4047,12 +4047,12 @@
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="134"/>
       <c r="I3" s="280"/>
       <c r="J3" s="280"/>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="243" t="s">
+      <c r="B46" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="245"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
@@ -4711,14 +4711,14 @@
       <c r="B50" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="238" t="s">
+      <c r="C50" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="238" t="s">
+      <c r="D50" s="256"/>
+      <c r="E50" s="255" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="239"/>
+      <c r="F50" s="256"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
@@ -4789,12 +4789,12 @@
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="134"/>
       <c r="I3" s="280"/>
       <c r="J3" s="280"/>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="243" t="s">
+      <c r="B46" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="245"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
@@ -5453,14 +5453,14 @@
       <c r="B50" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="238" t="s">
+      <c r="C50" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="238" t="s">
+      <c r="D50" s="256"/>
+      <c r="E50" s="255" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="239"/>
+      <c r="F50" s="256"/>
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
@@ -5521,21 +5521,21 @@
       <c r="B2" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
       <c r="G2" s="205"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="207"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
       <c r="G3" s="205"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1">
@@ -6344,7 +6344,7 @@
   <dimension ref="B7:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6450,7 +6450,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="43">
-        <f>'Orden Compra'!C23</f>
+        <f>'Orden Compra'!D23</f>
         <v>0</v>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="43">
-        <f>'Orden Compra'!C24</f>
+        <f>'Orden Compra'!D24</f>
         <v>0</v>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
         <v>97</v>
       </c>
       <c r="D27" s="43">
-        <f>'Orden Compra'!C25</f>
+        <f>'Orden Compra'!D25</f>
         <v>0</v>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="43">
-        <f>'Orden Compra'!C26</f>
+        <f>'Orden Compra'!D26</f>
         <v>0</v>
       </c>
     </row>

--- a/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
+++ b/gzl_reporte/report/Informe_Credito_Cobranza_Garante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7D5953-EAFF-4CD5-ADD9-52D42B220113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A772005B-12EB-43BA-90F0-9C8C33644300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="2" r:id="rId1"/>
@@ -69,17 +69,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
   <si>
     <t>GP-Aprob 01 Ver 02 03 20</t>
   </si>
   <si>
-    <t>Gerencia General</t>
-  </si>
-  <si>
-    <t>Gerencia Comercial</t>
-  </si>
-  <si>
     <t>COMITÉ DE APROBACION</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>Muebles y Enseres</t>
   </si>
   <si>
-    <t>Jefe de Cartera</t>
-  </si>
-  <si>
     <t>Ingresos familiares</t>
   </si>
   <si>
@@ -389,9 +380,6 @@
     <t>Atentamente,</t>
   </si>
   <si>
-    <t>Gerente General</t>
-  </si>
-  <si>
     <t>COMISION POR DISPOSITIVO DE RASTREO</t>
   </si>
   <si>
@@ -413,21 +401,12 @@
     <t>0993850566 - 052475090</t>
   </si>
   <si>
-    <t>PRENDA COMERCIAL ORDINARIA A FAVOR DE PROMOAUTO S.A.</t>
-  </si>
-  <si>
-    <t>Gerencia Operativo</t>
-  </si>
-  <si>
     <t>Función judicial</t>
   </si>
   <si>
     <t>Fiscalia General del Estado</t>
   </si>
   <si>
-    <t>Analista de Crédito</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROMOAUTO ECUADOR S.A </t>
   </si>
   <si>
@@ -474,6 +453,15 @@
   </si>
   <si>
     <t>GERENTE DE OPERACIONES</t>
+  </si>
+  <si>
+    <t>Gerencia Operativa</t>
+  </si>
+  <si>
+    <t>Adjudicaciones</t>
+  </si>
+  <si>
+    <t>VEHICULO CON RESERVA DE DOMINIO A FAVOR DE PROMOAUTO S.A.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +478,7 @@
     <numFmt numFmtId="170" formatCode="0000000000"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -657,13 +645,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF483488"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
@@ -1007,7 +988,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1016,19 +997,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1198,7 +1172,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,9 +1222,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1449,12 +1419,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,16 +1429,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1523,12 +1499,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,13 +1508,13 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1568,22 +1538,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,21 +1597,6 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1656,19 +1611,19 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1683,10 +1638,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2818,567 +2773,576 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="62" customWidth="1"/>
-    <col min="3" max="6" width="14.85546875" style="62" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="62"/>
+    <col min="1" max="1" width="2.28515625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="57" customWidth="1"/>
+    <col min="3" max="6" width="14.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5703125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="241"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="241"/>
-      <c r="B2" s="243" t="s">
+      <c r="A2" s="236"/>
+      <c r="B2" s="238" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A3" s="236"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A4" s="236"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A5" s="236"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="B8" s="250" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="250"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="250"/>
+      <c r="H8" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="270"/>
+      <c r="H10" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="271"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="110"/>
+      <c r="H11" s="58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="B12" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="109"/>
+      <c r="F12" s="60"/>
+      <c r="H12" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="112"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="251" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="270"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="256"/>
+      <c r="F17" s="121"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="252" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B23" s="257" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="258"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="258"/>
+      <c r="F23" s="259"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="259"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="260"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="262"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B29" s="263"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="265"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="263"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="265"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="263"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="265"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="263"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="264"/>
+      <c r="F32" s="265"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="266"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="268"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="252" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="252"/>
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="79">
+        <v>0</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="76">
+        <v>0</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="79">
+        <v>0</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="74"/>
+      <c r="F38" s="80"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="241"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="241"/>
-      <c r="B4" s="244"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="257" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="H8" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="H9" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="277"/>
-      <c r="H10" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="120" t="s">
+      <c r="C39" s="81">
+        <v>0</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="74"/>
+      <c r="F39" s="82"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="83">
+        <v>0</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87">
+        <f>SUM(C36:C41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="69"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="252" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="252"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="278"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="116"/>
-      <c r="H11" s="63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="B12" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="121" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="65"/>
-      <c r="H12" s="63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="258" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="276"/>
-      <c r="D16" s="276"/>
-      <c r="E16" s="276"/>
-      <c r="F16" s="277"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="263" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="263"/>
-      <c r="F17" s="127"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="238"/>
-      <c r="F18" s="239"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="264" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="266"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="264"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="266"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="267"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="269"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="259" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="259"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="259"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="270"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="272"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="270"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="272"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="270"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="272"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="270"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="272"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="273"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="275"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="259" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="259"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
-      <c r="F35" s="259"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="84">
-        <v>0</v>
-      </c>
-      <c r="D36" s="77" t="s">
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="91"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="93"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="94"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="95"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="81">
-        <v>0</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="84">
-        <v>0</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="85"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="236" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="86">
-        <v>0</v>
-      </c>
-      <c r="D39" s="74" t="s">
+      <c r="C47" s="94"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="95"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="85"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="87"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="88">
-        <v>0</v>
-      </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92">
-        <f>SUM(C36:C41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="74"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="259" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="259"/>
-      <c r="D43" s="259"/>
-      <c r="E43" s="259"/>
-      <c r="F43" s="259"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="96"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="64" t="s">
+      <c r="C50" s="252"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
+      <c r="F50" s="252"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="240"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="241"/>
+      <c r="E51" s="241"/>
+      <c r="F51" s="242"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="243"/>
+      <c r="C52" s="244"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="245"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="243"/>
+      <c r="C53" s="244"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="245"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="243"/>
+      <c r="C54" s="244"/>
+      <c r="D54" s="244"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="245"/>
+      <c r="K54" s="97"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="243"/>
+      <c r="C55" s="244"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="245"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="246"/>
+      <c r="C56" s="244"/>
+      <c r="D56" s="244"/>
+      <c r="E56" s="244"/>
+      <c r="F56" s="245"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="246"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="244"/>
+      <c r="E57" s="244"/>
+      <c r="F57" s="245"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="247"/>
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="248"/>
+      <c r="F58" s="249"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="E59" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="235"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="254"/>
+      <c r="D61" s="254"/>
+      <c r="E61" s="254"/>
+      <c r="F61" s="255"/>
+    </row>
+    <row r="62" spans="2:11" ht="15">
+      <c r="B62" s="98"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="100"/>
+    </row>
+    <row r="63" spans="2:11" ht="15">
+      <c r="B63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="103"/>
+    </row>
+    <row r="64" spans="2:11" ht="15">
+      <c r="B64" s="104"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="107"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="98"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="64" t="s">
+      <c r="C65" s="231"/>
+      <c r="D65" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="100"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="100"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="68" t="s">
+      <c r="E65" s="231"/>
+      <c r="F65" s="232"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="90"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="259" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="259"/>
-      <c r="D50" s="259"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="259"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="245"/>
-      <c r="C51" s="246"/>
-      <c r="D51" s="246"/>
-      <c r="E51" s="246"/>
-      <c r="F51" s="247"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="248"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="249"/>
-      <c r="F52" s="250"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="248"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="249"/>
-      <c r="F53" s="250"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="248"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="250"/>
-      <c r="K54" s="102"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="248"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="249"/>
-      <c r="F55" s="250"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="251"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="250"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="251"/>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="249"/>
-      <c r="F57" s="250"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="252"/>
-      <c r="C58" s="253"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="254"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="E59" s="240" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="240"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="260" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="261"/>
-      <c r="D61" s="261"/>
-      <c r="E61" s="261"/>
-      <c r="F61" s="262"/>
-    </row>
-    <row r="62" spans="2:11" ht="15">
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="106"/>
-    </row>
-    <row r="63" spans="2:11" ht="15">
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="109"/>
-    </row>
-    <row r="64" spans="2:11" ht="15">
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="113"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="255" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="256"/>
-      <c r="E65" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="256"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="133" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="133"/>
+      <c r="C66" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B23:F25"/>
+    <mergeCell ref="B29:F33"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B51:F58"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B21:F21"/>
@@ -3387,18 +3351,6 @@
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B23:F25"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B51:F58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3419,562 +3371,561 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B61" sqref="B61:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="62" customWidth="1"/>
-    <col min="3" max="6" width="14.85546875" style="62" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="62"/>
+    <col min="1" max="1" width="2.28515625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="57" customWidth="1"/>
+    <col min="3" max="6" width="14.85546875" style="57" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5703125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="241"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="241"/>
-      <c r="B2" s="243" t="s">
+      <c r="A2" s="236"/>
+      <c r="B2" s="238" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A3" s="236"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A4" s="236"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A5" s="236"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="B8" s="250" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="250"/>
+      <c r="D8" s="250"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="250"/>
+      <c r="H8" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="270"/>
+      <c r="H10" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="271"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="110"/>
+      <c r="H11" s="58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="B12" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="109"/>
+      <c r="F12" s="60"/>
+      <c r="H12" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="112"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="251" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="270"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="256"/>
+      <c r="F17" s="121"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="252" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="258"/>
+      <c r="F23" s="259"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="259"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="260"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="262"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B29" s="263"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="265"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="263"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="265"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="263"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="265"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="263"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="264"/>
+      <c r="F32" s="265"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="266"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="268"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="252" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="252"/>
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="79">
+        <v>0</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="76">
+        <v>0</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="79">
+        <v>0</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="74"/>
+      <c r="F38" s="80"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="241"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="241"/>
-      <c r="B4" s="244"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="257" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="H8" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="H9" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="277"/>
-      <c r="H10" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="120" t="s">
+      <c r="C39" s="81">
+        <v>0</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="74"/>
+      <c r="F39" s="82"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="83">
+        <v>0</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87">
+        <f>SUM(C36:C41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="69"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="252" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="252"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="278"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="116"/>
-      <c r="H11" s="63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="B12" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="121" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="65"/>
-      <c r="H12" s="63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="258" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="276"/>
-      <c r="D16" s="276"/>
-      <c r="E16" s="276"/>
-      <c r="F16" s="277"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="263" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="263"/>
-      <c r="F17" s="127"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="238"/>
-      <c r="F18" s="239"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B23" s="264"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="266"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="264"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="266"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="267"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="269"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="259" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="259"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="259"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B29" s="270"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="272"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="270"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="272"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="270"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="272"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="270"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="272"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="273"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="275"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="259" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="259"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
-      <c r="F35" s="259"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="84">
-        <v>0</v>
-      </c>
-      <c r="D36" s="77" t="s">
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="91"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="93"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="94"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="95"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="81">
-        <v>0</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="84">
-        <v>0</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="85"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="236" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="86">
-        <v>0</v>
-      </c>
-      <c r="D39" s="74" t="s">
+      <c r="C47" s="94"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="95"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="85"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="87"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="88">
-        <v>0</v>
-      </c>
-      <c r="D40" s="74"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92">
-        <f>SUM(C36:C41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="74"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="259" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="259"/>
-      <c r="D43" s="259"/>
-      <c r="E43" s="259"/>
-      <c r="F43" s="259"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="96"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="64" t="s">
+      <c r="C50" s="252"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
+      <c r="F50" s="252"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="240"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="241"/>
+      <c r="E51" s="241"/>
+      <c r="F51" s="242"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="243"/>
+      <c r="C52" s="244"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="245"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="243"/>
+      <c r="C53" s="244"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="245"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="243"/>
+      <c r="C54" s="244"/>
+      <c r="D54" s="244"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="245"/>
+      <c r="K54" s="97"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="243"/>
+      <c r="C55" s="244"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="245"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="246"/>
+      <c r="C56" s="244"/>
+      <c r="D56" s="244"/>
+      <c r="E56" s="244"/>
+      <c r="F56" s="245"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="246"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="244"/>
+      <c r="E57" s="244"/>
+      <c r="F57" s="245"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="247"/>
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="248"/>
+      <c r="F58" s="249"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="E59" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="235"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="254"/>
+      <c r="D61" s="254"/>
+      <c r="E61" s="254"/>
+      <c r="F61" s="255"/>
+    </row>
+    <row r="62" spans="2:11" ht="15">
+      <c r="B62" s="98"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="100"/>
+    </row>
+    <row r="63" spans="2:11" ht="15">
+      <c r="B63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="103"/>
+    </row>
+    <row r="64" spans="2:11" ht="15">
+      <c r="B64" s="104"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="107"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="98"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="64" t="s">
+      <c r="C65" s="231"/>
+      <c r="D65" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="100"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="100"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="68" t="s">
+      <c r="E65" s="231"/>
+      <c r="F65" s="232"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="90"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="259" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="259"/>
-      <c r="D50" s="259"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="259"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="245"/>
-      <c r="C51" s="246"/>
-      <c r="D51" s="246"/>
-      <c r="E51" s="246"/>
-      <c r="F51" s="247"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="248"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="249"/>
-      <c r="F52" s="250"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="248"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="249"/>
-      <c r="F53" s="250"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="248"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="250"/>
-      <c r="K54" s="102"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="248"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="249"/>
-      <c r="F55" s="250"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="251"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="250"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="251"/>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="249"/>
-      <c r="F57" s="250"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="252"/>
-      <c r="C58" s="253"/>
-      <c r="D58" s="253"/>
-      <c r="E58" s="253"/>
-      <c r="F58" s="254"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="E59" s="240" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="240"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="260" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="261"/>
-      <c r="D61" s="261"/>
-      <c r="E61" s="261"/>
-      <c r="F61" s="262"/>
-    </row>
-    <row r="62" spans="2:11" ht="15">
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="106"/>
-    </row>
-    <row r="63" spans="2:11" ht="15">
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="109"/>
-    </row>
-    <row r="64" spans="2:11" ht="15">
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="113"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="255" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="256"/>
-      <c r="E65" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="256"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="133" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="133"/>
+      <c r="C66" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
     <mergeCell ref="B23:F25"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C1:E1"/>
@@ -3989,8 +3940,6 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B29:F33"/>
     <mergeCell ref="B35:F35"/>
@@ -4016,733 +3965,729 @@
   </sheetPr>
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="62" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="131" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="182" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="62"/>
-    <col min="9" max="9" width="16.140625" style="62" customWidth="1"/>
-    <col min="10" max="16384" width="11.5703125" style="62"/>
+    <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="57" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="175" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="57"/>
+    <col min="9" max="9" width="16.140625" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="243" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="134"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="238" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="127"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="183"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="280"/>
-      <c r="K4" s="280"/>
-      <c r="L4" s="280"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="176"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
     </row>
     <row r="5" spans="1:12" ht="12.6" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:12" ht="12.6" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-    </row>
-    <row r="7" spans="1:12" s="138" customFormat="1" ht="15.75">
-      <c r="A7" s="64"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="137"/>
-    </row>
-    <row r="8" spans="1:12" s="138" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="137"/>
-    </row>
-    <row r="9" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A9" s="64"/>
-      <c r="B9" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="192" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="185"/>
-      <c r="G9" s="137"/>
-    </row>
-    <row r="10" spans="1:12" s="138" customFormat="1" ht="15.75">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="137"/>
-    </row>
-    <row r="11" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A11" s="64"/>
-      <c r="B11" s="120" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:12" s="131" customFormat="1" ht="15.75">
+      <c r="A7" s="59"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130"/>
+    </row>
+    <row r="8" spans="1:12" s="131" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="190" t="s">
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="130"/>
+    </row>
+    <row r="9" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A9" s="59"/>
+      <c r="B9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="C9" s="274"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="185" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="178"/>
+      <c r="G9" s="130"/>
+    </row>
+    <row r="10" spans="1:12" s="131" customFormat="1" ht="15.75">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="130"/>
+    </row>
+    <row r="11" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A11" s="59"/>
+      <c r="B11" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="191" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="137"/>
-    </row>
-    <row r="12" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A12" s="64"/>
-      <c r="B12" s="120" t="s">
+      <c r="E11" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="137"/>
-    </row>
-    <row r="13" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A13" s="64"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="137"/>
+      <c r="F11" s="184" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="130"/>
+    </row>
+    <row r="12" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A12" s="59"/>
+      <c r="B12" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="130"/>
+    </row>
+    <row r="13" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A13" s="59"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="107"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="73"/>
-      <c r="I14" s="142" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="142" t="s">
-        <v>57</v>
+      <c r="A14" s="101"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="68"/>
+      <c r="I14" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="135" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="107"/>
-      <c r="B15" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="143">
+      <c r="A15" s="101"/>
+      <c r="B15" s="186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="136">
         <f>C12*D12</f>
         <v>0</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="137">
         <f>+D12</f>
         <v>0</v>
       </c>
-      <c r="E15" s="145" t="e">
+      <c r="E15" s="138" t="e">
         <f>SUM(E16:E17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="73"/>
-      <c r="I15" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="142">
+      <c r="F15" s="134"/>
+      <c r="G15" s="68"/>
+      <c r="I15" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="107"/>
-      <c r="B16" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="146">
+      <c r="A16" s="101"/>
+      <c r="B16" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="139">
         <f>C12*D16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148" t="e">
+      <c r="D16" s="140"/>
+      <c r="E16" s="141" t="e">
         <f>+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="149"/>
-      <c r="G16" s="73"/>
-      <c r="I16" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="142">
+      <c r="F16" s="142"/>
+      <c r="G16" s="68"/>
+      <c r="I16" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="135">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="107"/>
-      <c r="B17" s="195" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="150">
+      <c r="A17" s="101"/>
+      <c r="B17" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="143">
         <f>+C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="151">
+      <c r="D17" s="144">
         <f>+D15-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="152" t="e">
+      <c r="E17" s="145" t="e">
         <f>+C17/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="73"/>
-      <c r="I17" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="142">
+      <c r="F17" s="134"/>
+      <c r="G17" s="68"/>
+      <c r="I17" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="107"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="73"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="142"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="68"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="107"/>
-      <c r="B19" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="154">
+      <c r="A19" s="101"/>
+      <c r="B19" s="186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="147">
         <v>10000</v>
       </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="73"/>
-      <c r="I19" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="142">
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="68"/>
+      <c r="I19" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="107"/>
-      <c r="B20" s="196" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="146">
+      <c r="A20" s="101"/>
+      <c r="B20" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="139">
         <f>+C17</f>
         <v>0</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158" t="e">
+      <c r="D20" s="150"/>
+      <c r="E20" s="151" t="e">
         <f>+C19/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="73"/>
-      <c r="I20" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="142">
+      <c r="F20" s="142"/>
+      <c r="G20" s="68"/>
+      <c r="I20" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="135">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="73"/>
-      <c r="I21" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="142">
+      <c r="A21" s="101"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="68"/>
+      <c r="I21" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="107"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="73"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="142"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="68"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="107"/>
-      <c r="B23" s="193" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155">
+        <v>1</v>
+      </c>
+      <c r="E23" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162">
-        <v>1</v>
-      </c>
-      <c r="E23" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="141"/>
-      <c r="G23" s="73"/>
-      <c r="I23" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="142">
+      <c r="F23" s="134"/>
+      <c r="G23" s="68"/>
+      <c r="I23" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="107"/>
-      <c r="B24" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="163">
+      <c r="A24" s="101"/>
+      <c r="B24" s="190" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="156">
         <f>+C23*0.7</f>
         <v>0</v>
       </c>
-      <c r="D24" s="164" t="e">
+      <c r="D24" s="157" t="e">
         <f>+C24/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="149"/>
-      <c r="G24" s="73"/>
-      <c r="I24" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="142">
+      <c r="E24" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="142"/>
+      <c r="G24" s="68"/>
+      <c r="I24" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="135">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="107"/>
-      <c r="B25" s="198" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="165">
+      <c r="A25" s="101"/>
+      <c r="B25" s="191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="158">
         <f>+C23-C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="166" t="e">
+      <c r="D25" s="159" t="e">
         <f>+D23-D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="167" t="e">
+      <c r="E25" s="160" t="e">
         <f>+C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="73"/>
-      <c r="I25" s="131" t="s">
+      <c r="F25" s="134"/>
+      <c r="G25" s="68"/>
+      <c r="I25" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="101"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="68"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="135"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" s="101"/>
+      <c r="B27" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="162">
+        <f>IF(E27&gt;=800,200,IF(E27&gt;=500,100,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="135"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="101"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="68"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="135"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" s="101"/>
+      <c r="B29" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="162">
+        <f>IF(E29&gt;=2,200,IF(E29&gt;=29,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="I29" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="101"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="68"/>
+      <c r="I30" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="107"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="73"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="142"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="107"/>
-      <c r="B27" s="201" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="169">
-        <f>IF(E27&gt;=800,200,IF(E27&gt;=500,100,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="73"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="142"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="107"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="73"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="142"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="107"/>
-      <c r="B29" s="201" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="169">
-        <f>IF(E29&gt;=2,200,IF(E29&gt;=29,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="73"/>
-      <c r="I29" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="107"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="73"/>
-      <c r="I30" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="142">
+      <c r="J30" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="107"/>
-      <c r="B31" s="201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="202" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="202" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="202"/>
-      <c r="F31" s="169">
+      <c r="A31" s="101"/>
+      <c r="B31" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="195"/>
+      <c r="F31" s="162">
         <f>+D32+D33+D34+D35+D36</f>
         <v>0</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="171"/>
+      <c r="G31" s="68"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="164"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="107"/>
-      <c r="B32" s="199" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173">
+      <c r="A32" s="101"/>
+      <c r="B32" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166">
         <f>IF(C32="Si",200,0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="73"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="68"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="107"/>
-      <c r="B33" s="200" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173">
+      <c r="A33" s="101"/>
+      <c r="B33" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166">
         <f>IF(C33="Si",150,0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="73"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="107"/>
-      <c r="B34" s="199" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173">
+      <c r="A34" s="101"/>
+      <c r="B34" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166">
         <f>IF(C34="Si",100,0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="73"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="107"/>
-      <c r="B35" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="172"/>
-      <c r="D35" s="173">
+      <c r="A35" s="101"/>
+      <c r="B35" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166">
         <f>IF(C35="Si",50,0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="108"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="73"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="107"/>
-      <c r="B36" s="200" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173">
+      <c r="A36" s="101"/>
+      <c r="B36" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="165"/>
+      <c r="D36" s="166">
         <f>IF(C36="Si",25,0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="73"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="107"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
-      <c r="A38" s="107"/>
-      <c r="B38" s="282" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="175">
+      <c r="A38" s="101"/>
+      <c r="B38" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="168">
         <f>+F16+F20+F24+F27+F29+F31</f>
         <v>0</v>
       </c>
-      <c r="G38" s="73"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="107"/>
-      <c r="B39" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="141"/>
-      <c r="G39" s="73"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="169" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="134"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="107"/>
-      <c r="B40" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="176" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="141"/>
-      <c r="G40" s="73"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="134"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="107"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="73"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="107"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="73"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="107"/>
-      <c r="B43" s="177" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="73"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="107"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="73"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A45" s="107"/>
-      <c r="G45" s="73"/>
+      <c r="A45" s="101"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A46" s="107"/>
-      <c r="B46" s="260" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="262"/>
-      <c r="G46" s="73"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="255"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="107"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="73"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="73"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="73"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="107"/>
-      <c r="B50" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="255" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="256"/>
-      <c r="E50" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="256"/>
-      <c r="G50" s="73"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="231"/>
+      <c r="F50" s="232"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
-      <c r="A51" s="110"/>
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="279"/>
-      <c r="G51" s="111"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="272"/>
+      <c r="G51" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="I3:L4"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4758,726 +4703,720 @@
   </sheetPr>
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="62" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="131" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="182" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="62"/>
-    <col min="9" max="9" width="16.140625" style="62" customWidth="1"/>
-    <col min="10" max="16384" width="11.5703125" style="62"/>
+    <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="57" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="175" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="57"/>
+    <col min="9" max="9" width="16.140625" style="57" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="243" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="134"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="238" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="127"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="183"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="280"/>
-      <c r="K4" s="280"/>
-      <c r="L4" s="280"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="176"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
     </row>
     <row r="5" spans="1:12" ht="12.6" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
     </row>
     <row r="6" spans="1:12" ht="12.6" customHeight="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-    </row>
-    <row r="7" spans="1:12" s="138" customFormat="1" ht="15.75">
-      <c r="A7" s="64"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="137"/>
-    </row>
-    <row r="8" spans="1:12" s="138" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="137"/>
-    </row>
-    <row r="9" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A9" s="64"/>
-      <c r="B9" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="192" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="185"/>
-      <c r="G9" s="137"/>
-    </row>
-    <row r="10" spans="1:12" s="138" customFormat="1" ht="15.75">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="137"/>
-    </row>
-    <row r="11" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A11" s="64"/>
-      <c r="B11" s="120" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="1:12" s="131" customFormat="1" ht="15.75">
+      <c r="A7" s="59"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130"/>
+    </row>
+    <row r="8" spans="1:12" s="131" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="190" t="s">
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="130"/>
+    </row>
+    <row r="9" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A9" s="59"/>
+      <c r="B9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="C9" s="274"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="185" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="178"/>
+      <c r="G9" s="130"/>
+    </row>
+    <row r="10" spans="1:12" s="131" customFormat="1" ht="15.75">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="130"/>
+    </row>
+    <row r="11" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A11" s="59"/>
+      <c r="B11" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="191" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="137"/>
-    </row>
-    <row r="12" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A12" s="64"/>
-      <c r="B12" s="120" t="s">
+      <c r="E11" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="137"/>
-    </row>
-    <row r="13" spans="1:12" s="138" customFormat="1" ht="12.75">
-      <c r="A13" s="64"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="137"/>
+      <c r="F11" s="184" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="130"/>
+    </row>
+    <row r="12" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A12" s="59"/>
+      <c r="B12" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="130"/>
+    </row>
+    <row r="13" spans="1:12" s="131" customFormat="1" ht="12.75">
+      <c r="A13" s="59"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="130"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="107"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="73"/>
-      <c r="I14" s="142" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="142" t="s">
-        <v>57</v>
+      <c r="A14" s="101"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="68"/>
+      <c r="I14" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="135" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="107"/>
-      <c r="B15" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="143">
+      <c r="A15" s="101"/>
+      <c r="B15" s="186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="136">
         <f>C12*D12</f>
         <v>0</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="137">
         <f>+D12</f>
         <v>0</v>
       </c>
-      <c r="E15" s="145" t="e">
+      <c r="E15" s="138" t="e">
         <f>SUM(E16:E17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="73"/>
-      <c r="I15" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="142">
+      <c r="F15" s="134"/>
+      <c r="G15" s="68"/>
+      <c r="I15" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="107"/>
-      <c r="B16" s="194" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="146">
+      <c r="A16" s="101"/>
+      <c r="B16" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="139">
         <f>C12*D16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148" t="e">
+      <c r="D16" s="140"/>
+      <c r="E16" s="141" t="e">
         <f>+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="149"/>
-      <c r="G16" s="73"/>
-      <c r="I16" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="142">
+      <c r="F16" s="142"/>
+      <c r="G16" s="68"/>
+      <c r="I16" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="135">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="107"/>
-      <c r="B17" s="195" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="150">
+      <c r="A17" s="101"/>
+      <c r="B17" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="143">
         <f>+C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="151">
+      <c r="D17" s="144">
         <f>+D15-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="152" t="e">
+      <c r="E17" s="145" t="e">
         <f>+C17/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="73"/>
-      <c r="I17" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="142">
+      <c r="F17" s="134"/>
+      <c r="G17" s="68"/>
+      <c r="I17" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="107"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="73"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="142"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="68"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="107"/>
-      <c r="B19" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="154">
+      <c r="A19" s="101"/>
+      <c r="B19" s="186" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="147">
         <v>10000</v>
       </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="73"/>
-      <c r="I19" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="142">
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="68"/>
+      <c r="I19" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="107"/>
-      <c r="B20" s="196" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="146">
+      <c r="A20" s="101"/>
+      <c r="B20" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="139">
         <f>+C17</f>
         <v>0</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158" t="e">
+      <c r="D20" s="150"/>
+      <c r="E20" s="151" t="e">
         <f>+C19/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="73"/>
-      <c r="I20" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="142">
+      <c r="F20" s="142"/>
+      <c r="G20" s="68"/>
+      <c r="I20" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="135">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="73"/>
-      <c r="I21" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="142">
+      <c r="A21" s="101"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="68"/>
+      <c r="I21" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="107"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="73"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="142"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="68"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="107"/>
-      <c r="B23" s="193" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155">
+        <v>1</v>
+      </c>
+      <c r="E23" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162">
-        <v>1</v>
-      </c>
-      <c r="E23" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="141"/>
-      <c r="G23" s="73"/>
-      <c r="I23" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="142">
+      <c r="F23" s="134"/>
+      <c r="G23" s="68"/>
+      <c r="I23" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="107"/>
-      <c r="B24" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="163">
+      <c r="A24" s="101"/>
+      <c r="B24" s="190" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="156">
         <f>+C23*0.7</f>
         <v>0</v>
       </c>
-      <c r="D24" s="164" t="e">
+      <c r="D24" s="157" t="e">
         <f>+C24/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="149"/>
-      <c r="G24" s="73"/>
-      <c r="I24" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="142">
+      <c r="E24" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="142"/>
+      <c r="G24" s="68"/>
+      <c r="I24" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="135">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="107"/>
-      <c r="B25" s="198" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="165">
+      <c r="A25" s="101"/>
+      <c r="B25" s="191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="158">
         <f>+C23-C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="166" t="e">
+      <c r="D25" s="159" t="e">
         <f>+D23-D24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="167" t="e">
+      <c r="E25" s="160" t="e">
         <f>+C12/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="73"/>
-      <c r="I25" s="131" t="s">
+      <c r="F25" s="134"/>
+      <c r="G25" s="68"/>
+      <c r="I25" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="101"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="68"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="135"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" s="101"/>
+      <c r="B27" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="162">
+        <f>IF(E27&gt;=800,200,IF(E27&gt;=500,100,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="135"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="101"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="68"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="135"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" s="101"/>
+      <c r="B29" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="162">
+        <f>IF(E29&gt;=2,200,IF(E29&gt;=29,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="I29" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="101"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="68"/>
+      <c r="I30" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="107"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="73"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="142"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="107"/>
-      <c r="B27" s="201" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="169">
-        <f>IF(E27&gt;=800,200,IF(E27&gt;=500,100,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="73"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="142"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="107"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="73"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="142"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="107"/>
-      <c r="B29" s="201" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="169">
-        <f>IF(E29&gt;=2,200,IF(E29&gt;=29,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="73"/>
-      <c r="I29" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="107"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="73"/>
-      <c r="I30" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="142">
+      <c r="J30" s="135">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="107"/>
-      <c r="B31" s="201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="202" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="202" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="202"/>
-      <c r="F31" s="169">
+      <c r="A31" s="101"/>
+      <c r="B31" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="195" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="195"/>
+      <c r="F31" s="162">
         <f>+D32+D33+D34+D35+D36</f>
         <v>0</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="171"/>
+      <c r="G31" s="68"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="164"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="107"/>
-      <c r="B32" s="199" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173">
+      <c r="A32" s="101"/>
+      <c r="B32" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166">
         <f>IF(C32="Si",200,0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="73"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="68"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="107"/>
-      <c r="B33" s="200" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173">
+      <c r="A33" s="101"/>
+      <c r="B33" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166">
         <f>IF(C33="Si",150,0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="73"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="107"/>
-      <c r="B34" s="199" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173">
+      <c r="A34" s="101"/>
+      <c r="B34" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166">
         <f>IF(C34="Si",100,0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="73"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="107"/>
-      <c r="B35" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="172"/>
-      <c r="D35" s="173">
+      <c r="A35" s="101"/>
+      <c r="B35" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166">
         <f>IF(C35="Si",50,0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="108"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="73"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="107"/>
-      <c r="B36" s="200" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173">
+      <c r="A36" s="101"/>
+      <c r="B36" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="165"/>
+      <c r="D36" s="166">
         <f>IF(C36="Si",25,0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="73"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="107"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
-      <c r="A38" s="107"/>
-      <c r="B38" s="282" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="175">
+      <c r="A38" s="101"/>
+      <c r="B38" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="168">
         <f>+F16+F20+F24+F27+F29+F31</f>
         <v>0</v>
       </c>
-      <c r="G38" s="73"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="107"/>
-      <c r="B39" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="141"/>
-      <c r="G39" s="73"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="169" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="134"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="107"/>
-      <c r="B40" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="176" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="141"/>
-      <c r="G40" s="73"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="134"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="107"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="73"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="107"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="73"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="107"/>
-      <c r="B43" s="177" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="73"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="107"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="73"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A45" s="107"/>
-      <c r="G45" s="73"/>
+      <c r="A45" s="101"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A46" s="107"/>
-      <c r="B46" s="260" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="262"/>
-      <c r="G46" s="73"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="255"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="107"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="73"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="73"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A49" s="107"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="73"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="107"/>
-      <c r="B50" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="255" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="256"/>
-      <c r="E50" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="256"/>
-      <c r="G50" s="73"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="231"/>
+      <c r="F50" s="232"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="12.75">
-      <c r="A51" s="110"/>
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="279"/>
-      <c r="G51" s="111"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="272"/>
+      <c r="G51" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="I3:L4"/>
@@ -5485,6 +5424,8 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5500,8 +5441,8 @@
   </sheetPr>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -5510,268 +5451,268 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="36" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="20.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="207" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="243" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="205"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="238" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="198"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="205"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="198"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="199"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="205"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="198"/>
     </row>
     <row r="6" spans="1:14" ht="20.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="N6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" s="30" customFormat="1" ht="38.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="286">
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="38.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="279">
         <f>+Aprobacion!C8</f>
         <v>0</v>
       </c>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" s="30" customFormat="1" ht="25.5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="210" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="289">
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="25.5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="282">
         <f>+Aprobacion!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="289"/>
-      <c r="E8" s="220" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="211">
+      <c r="D8" s="282"/>
+      <c r="E8" s="213" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="204">
         <f>+Aprobacion!F9</f>
         <v>0</v>
       </c>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:14" s="30" customFormat="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" s="30" customFormat="1" ht="12.75">
-      <c r="A10" s="37"/>
-      <c r="B10" s="209" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="212">
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="12.75">
+      <c r="A10" s="32"/>
+      <c r="B10" s="202" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="205">
         <f>+Aprobacion!C11</f>
         <v>0</v>
       </c>
-      <c r="D10" s="214" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="215" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="216" t="s">
+      <c r="D10" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" s="30" customFormat="1" ht="12.75">
-      <c r="A11" s="37"/>
-      <c r="B11" s="209" t="s">
+      <c r="E10" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="213">
+      <c r="F10" s="209" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="12.75">
+      <c r="A11" s="32"/>
+      <c r="B11" s="202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="206">
         <f>+Aprobacion!C12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="217">
+      <c r="D11" s="210">
         <f>+Aprobacion!D12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="218">
+      <c r="E11" s="211">
         <f>+Aprobacion!E12</f>
         <v>0</v>
       </c>
-      <c r="F11" s="219">
+      <c r="F11" s="212">
         <f>+Aprobacion!F12</f>
         <v>0</v>
       </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" s="30" customFormat="1" ht="12.75">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="31"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="12.75">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7"/>
-      <c r="B14" s="221" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="B14" s="214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24">
         <f>+C11*D11</f>
         <v>0</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <f>+D11</f>
         <v>0</v>
       </c>
-      <c r="E14" s="27" t="e">
+      <c r="E14" s="22" t="e">
         <f>SUM(E15:E16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="N14" s="30"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7"/>
-      <c r="B15" s="222" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="B15" s="215" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="15">
         <f>C11*D15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="26" t="e">
+      <c r="D15" s="44"/>
+      <c r="E15" s="21" t="e">
         <f>+C15/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="N15" s="30"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="N15" s="25"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7"/>
-      <c r="B16" s="223" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="B16" s="216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="18">
         <f>+C14-C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="20">
         <f>+D14-D15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24" t="e">
+      <c r="E16" s="19" t="e">
         <f>+C16/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="6"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
-      <c r="B19" s="225" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="46">
+      <c r="B19" s="218" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="41">
         <f>+C10</f>
         <v>0</v>
       </c>
@@ -5779,25 +5720,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
-      <c r="B20" s="225" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="218" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
-      <c r="B21" s="225" t="str">
+      <c r="B21" s="218" t="str">
         <f>IF(F20&lt;F19,"SALDO A FAVOR APLICA A CUOTAS FINALES DEL PLAN","DIFERENCIA PAGA AL CONCESIONARIO")</f>
         <v>DIFERENCIA PAGA AL CONCESIONARIO</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="46">
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="41">
         <f>+F20-F19</f>
         <v>0</v>
       </c>
@@ -5805,22 +5746,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7"/>
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="46"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7"/>
-      <c r="B23" s="225" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="46">
+      <c r="B23" s="218" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="41">
         <f>IF(F19&lt;F20,F19,F20)</f>
         <v>0</v>
       </c>
@@ -5828,26 +5769,26 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7"/>
-      <c r="B24" s="225" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="46">
+      <c r="B24" s="218" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="41">
         <v>0</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7"/>
-      <c r="B25" s="225" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="46">
+      <c r="B25" s="218" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="41">
         <f>+F20*E25</f>
         <v>0</v>
       </c>
@@ -5855,33 +5796,33 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7"/>
-      <c r="B26" s="225" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="46">
+      <c r="B26" s="218" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="41">
         <v>0</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7"/>
-      <c r="B27" s="226"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7"/>
-      <c r="B28" s="225" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="51">
+      <c r="B28" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="46">
         <f>SUM(F23-F25-F26-F24)</f>
         <v>0</v>
       </c>
@@ -5889,60 +5830,60 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="299" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="300"/>
-      <c r="D30" s="295"/>
-      <c r="E30" s="296"/>
-      <c r="F30" s="297"/>
+      <c r="B30" s="287" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="288"/>
+      <c r="D30" s="283"/>
+      <c r="E30" s="284"/>
+      <c r="F30" s="285"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="46"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7"/>
-      <c r="B33" s="227" t="s">
-        <v>4</v>
+      <c r="B33" s="220" t="s">
+        <v>2</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="68.25" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="298"/>
-      <c r="C34" s="298"/>
-      <c r="D34" s="298"/>
-      <c r="E34" s="298"/>
-      <c r="F34" s="298"/>
+      <c r="B34" s="286"/>
+      <c r="C34" s="286"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="286"/>
+      <c r="F34" s="286"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
@@ -5951,69 +5892,67 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="290" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="291"/>
-      <c r="D36" s="291"/>
-      <c r="E36" s="291"/>
-      <c r="F36" s="292"/>
+      <c r="B36" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="254"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="7"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="107"/>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="228" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="293" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="294"/>
-      <c r="E40" s="293" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="294"/>
+      <c r="B40" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="231"/>
+      <c r="D40" s="231" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="231"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="229" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="285">
+      <c r="B41" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="278">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
-      </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="50"/>
+        <v>44750</v>
+      </c>
+      <c r="D41" s="278"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
@@ -6021,8 +5960,8 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="230" t="s">
-        <v>85</v>
+      <c r="E42" s="222" t="s">
+        <v>82</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -6034,11 +5973,11 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B36:F36"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6051,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6063,260 +6002,260 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="50.45" customHeight="1">
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="302" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="231"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="290" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="223"/>
     </row>
     <row r="3" spans="2:7" ht="12.6" customHeight="1">
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="231"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="223"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="231"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="223"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="304">
+        <v>83</v>
+      </c>
+      <c r="C6" s="292">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
-      </c>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
+        <v>44750</v>
+      </c>
+      <c r="D6" s="292"/>
+      <c r="E6" s="292"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="43">
+      <c r="B10" s="38">
         <f>+Liquidacion!D30</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B13" s="290" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+    </row>
+    <row r="14" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B14" s="293" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="293"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="219" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B13" s="302" t="s">
+      <c r="D16" s="38">
+        <f>+Liquidacion!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-    </row>
-    <row r="14" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B14" s="305" t="s">
+      <c r="D17" s="294">
+        <f>+Liquidacion!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="294"/>
+    </row>
+    <row r="18" spans="2:7" ht="27" customHeight="1">
+      <c r="B18" s="224" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="295"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="295"/>
+      <c r="G18" s="295"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="305"/>
-      <c r="D14" s="305"/>
-      <c r="E14" s="305"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="305"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="226" t="s">
+      <c r="D19" s="294" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="294"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="296" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="43">
-        <f>+Liquidacion!C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="226" t="s">
+      <c r="C21" s="296"/>
+      <c r="D21" s="296"/>
+      <c r="E21" s="296"/>
+      <c r="F21" s="296"/>
+      <c r="G21" s="296"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="306">
-        <f>+Liquidacion!C8</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="306"/>
-    </row>
-    <row r="18" spans="2:7" ht="27" customHeight="1">
-      <c r="B18" s="232" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="307"/>
-      <c r="E18" s="307"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="307"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="226" t="s">
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="306" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="306"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="308" t="s">
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="308"/>
-      <c r="D21" s="308"/>
-      <c r="E21" s="308"/>
-      <c r="F21" s="308"/>
-      <c r="G21" s="308"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="226" t="s">
+      <c r="D25" s="48"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="226" t="s">
+      <c r="D26" s="38"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="297" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="226" t="s">
+      <c r="C28" s="297"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="297"/>
+      <c r="G28" s="297"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="226" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="49">
+        <f>+Liquidacion!F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="53"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="226" t="s">
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="51">
+        <f>+Liquidacion!F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="226" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="43"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="309" t="s">
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="51">
+        <f>+Liquidacion!F25</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="226" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="51">
+        <f>+Liquidacion!F26</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="309"/>
-      <c r="G28" s="309"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="D29" s="54"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="234" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="234"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="54">
-        <f>+Liquidacion!F20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="56">
-        <f>+Liquidacion!F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="234" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="234"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="56">
-        <f>+Liquidacion!F25</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="234" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="56">
-        <f>+Liquidacion!F26</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="235" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="235"/>
-      <c r="D34" s="235"/>
-      <c r="E34" s="233">
+      <c r="C34" s="227"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="225">
         <f>+E31+E32+E33</f>
         <v>0</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="303">
+      <c r="B35" s="291">
         <f>IF(E35=0,0,"DIFERENCIA PAGA AL CONCESIONARIO")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="303"/>
-      <c r="D35" s="303"/>
-      <c r="E35" s="57">
+      <c r="C35" s="291"/>
+      <c r="D35" s="291"/>
+      <c r="E35" s="52">
         <f>IF(E34&lt;E30,E30-E34,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="301" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="301"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
-      <c r="G39" s="301"/>
+      <c r="B39" s="289" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="289"/>
+      <c r="D39" s="289"/>
+      <c r="E39" s="289"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="289"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="43" t="s">
-        <v>105</v>
+      <c r="B44" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6343,8 +6282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2923E-036B-4030-98A2-1853F255E7F8}">
   <dimension ref="B7:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6357,148 +6296,148 @@
   <sheetData>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="304">
+        <v>83</v>
+      </c>
+      <c r="C7" s="292">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
-      </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
+        <v>44750</v>
+      </c>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="43">
+      <c r="B12" s="38">
         <f>Liquidacion!D30</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75">
-      <c r="B15" s="311" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="311"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
+      <c r="B15" s="299" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
     </row>
     <row r="16" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B16" s="305" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="305"/>
-      <c r="D16" s="305"/>
-      <c r="E16" s="305"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
+      <c r="B16" s="293" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="43">
+        <v>88</v>
+      </c>
+      <c r="D18" s="38">
         <f>Informe!C10</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="306">
+        <v>89</v>
+      </c>
+      <c r="D19" s="294">
         <f>Informe!C11</f>
         <v>0</v>
       </c>
-      <c r="E19" s="306"/>
+      <c r="E19" s="294"/>
     </row>
     <row r="20" spans="2:7" ht="27" customHeight="1">
-      <c r="B20" s="237" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="307"/>
-      <c r="E20" s="307"/>
-      <c r="F20" s="307"/>
-      <c r="G20" s="307"/>
+      <c r="B20" s="229" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="295"/>
+      <c r="E20" s="295"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="295"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="306"/>
-      <c r="E21" s="306"/>
+        <v>90</v>
+      </c>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="310" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
+      <c r="B23" s="298" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="43">
+        <v>92</v>
+      </c>
+      <c r="D25" s="38">
         <f>'Orden Compra'!D23</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="43">
+        <v>93</v>
+      </c>
+      <c r="D26" s="38">
         <f>'Orden Compra'!D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="43">
+        <v>94</v>
+      </c>
+      <c r="D27" s="38">
         <f>'Orden Compra'!D25</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="43">
+        <v>95</v>
+      </c>
+      <c r="D28" s="38">
         <f>'Orden Compra'!D26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="43"/>
+        <v>126</v>
+      </c>
+      <c r="D30" s="38"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="43"/>
+      <c r="B32" s="38"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="43" t="s">
-        <v>105</v>
+      <c r="B35" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -6507,7 +6446,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
